--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagedwael/Documents/GitHub/QA-Workshop_Foodies/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3377EDC2-DF69-4240-B292-639331B92A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E636E0-58E1-D341-B926-DB86232BE6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="16940" xr2:uid="{0F9511DB-C9E7-1444-A025-74D4AAFEF999}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="281">
   <si>
     <t>SRS_ID</t>
   </si>
@@ -913,12 +913,45 @@
   <si>
     <t>Pass Percentage</t>
   </si>
+  <si>
+    <t>CRS_ID</t>
+  </si>
+  <si>
+    <t>CRS_FEAT001_001</t>
+  </si>
+  <si>
+    <t>CRS_FEAT003_001</t>
+  </si>
+  <si>
+    <t>CRS_FEAT003_003</t>
+  </si>
+  <si>
+    <t>CRS_FEAT002_001</t>
+  </si>
+  <si>
+    <t>CRS_FEAT004_001</t>
+  </si>
+  <si>
+    <t>CRS_FEAT007</t>
+  </si>
+  <si>
+    <t>CRS_FEAT006_001</t>
+  </si>
+  <si>
+    <t>CRS_FEAT006_002</t>
+  </si>
+  <si>
+    <t>CRS_FEAT006_003</t>
+  </si>
+  <si>
+    <t>CRS_FEAT006_004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1005,8 +1038,33 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,8 +1125,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor rgb="FFF6F8F9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1128,12 +1198,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,128 +1288,158 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1656,1991 +1776,2134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633F601B-FA9B-CA4C-9823-33DB5BB35D7C}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" customHeight="1">
+      <c r="A7" s="68"/>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" customHeight="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1">
+      <c r="A12" s="68"/>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="H13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1">
+      <c r="A14" s="68"/>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" customHeight="1">
+      <c r="A15" s="68"/>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" customHeight="1">
+      <c r="A16" s="68"/>
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" customHeight="1">
+      <c r="A19" s="68"/>
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" customHeight="1">
+      <c r="A20" s="68"/>
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="H20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" customHeight="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="10" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="H21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" customHeight="1">
+      <c r="A22" s="68"/>
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="10" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="H22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="H23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="10" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" customHeight="1">
+      <c r="A25" s="68"/>
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1">
+      <c r="A26" s="68"/>
+      <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="H26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="H27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="H28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="H29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" customHeight="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="10" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="H30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" customHeight="1">
+      <c r="A31" s="68"/>
+      <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="H31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" customHeight="1">
+      <c r="A32" s="68"/>
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="10" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="H32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" customHeight="1">
+      <c r="A33" s="68"/>
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="10" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="H33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" customHeight="1">
+      <c r="A34" s="68"/>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="H34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" customHeight="1">
+      <c r="A35" s="68"/>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="10" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="H35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" customHeight="1">
+      <c r="A36" s="68"/>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="10" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="H36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" customHeight="1">
+      <c r="A37" s="68"/>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="10" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="H37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" customHeight="1">
+      <c r="A38" s="68"/>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="10" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="H38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" customHeight="1">
+      <c r="A39" s="68"/>
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="10" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="H39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="C40" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="F40" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="H40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="17">
+      <c r="A41" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="59"/>
+      <c r="G41" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="H41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="17">
+      <c r="A42" s="70"/>
+      <c r="B42" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="11" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="H42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" ht="17">
+      <c r="A43" s="70"/>
+      <c r="B43" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="11" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:9" ht="17">
+      <c r="A44" s="70"/>
+      <c r="B44" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="11" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:9" ht="17">
+      <c r="A45" s="70"/>
+      <c r="B45" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="59"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:9" ht="34">
+      <c r="A46" s="70"/>
+      <c r="B46" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="H46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" customHeight="1">
+      <c r="A47" s="70"/>
+      <c r="B47" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="C47" s="59"/>
       <c r="D47" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="11" t="s">
+      <c r="E47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="18" t="s">
-        <v>10</v>
-      </c>
+    <row r="48" spans="1:9" ht="17">
+      <c r="A48" s="70"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="11" t="s">
+      <c r="E48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="H48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="17">
+      <c r="A49" s="8"/>
+      <c r="B49" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="H49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="17">
+      <c r="B50" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="H50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="17">
+      <c r="B51" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="H51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="17">
+      <c r="B52" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="H52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="17">
+      <c r="B53" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="H53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="28" customHeight="1">
+      <c r="A54" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="C54" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="F54" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="H54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="16" customHeight="1">
+      <c r="A55" s="72"/>
+      <c r="B55" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="10" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="H55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="16" customHeight="1">
+      <c r="A56" s="72"/>
+      <c r="B56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="10" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="H56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="16" customHeight="1">
+      <c r="A57" s="72"/>
+      <c r="B57" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="10" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="H57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" ht="16" customHeight="1">
+      <c r="A58" s="72"/>
+      <c r="B58" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="10" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="H58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="16" customHeight="1">
+      <c r="A59" s="72"/>
+      <c r="B59" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="28" t="s">
+      <c r="C59" s="66"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="43"/>
+      <c r="G59" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="H59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="16" customHeight="1">
+      <c r="A60" s="72"/>
+      <c r="B60" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="10" t="s">
+      <c r="C60" s="66"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="H60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="16" customHeight="1">
+      <c r="A61" s="72"/>
+      <c r="B61" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="28" t="s">
+      <c r="C61" s="66"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="43"/>
+      <c r="G61" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="H61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="16" customHeight="1">
+      <c r="A62" s="72"/>
+      <c r="B62" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="10" t="s">
+      <c r="C62" s="66"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="H62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" ht="36" customHeight="1">
+      <c r="A63" s="72"/>
+      <c r="B63" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="H63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" customHeight="1">
+      <c r="A64" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="C64" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="D64" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="E64" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="F64" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="H64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" customHeight="1">
+      <c r="A65" s="74"/>
+      <c r="B65" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="11" t="s">
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="H65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" customHeight="1">
+      <c r="A66" s="74"/>
+      <c r="B66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="11" t="s">
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="H66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" customHeight="1">
+      <c r="A67" s="74"/>
+      <c r="B67" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="H67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" customHeight="1">
+      <c r="A68" s="74"/>
+      <c r="B68" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="11" t="s">
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="H68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:9" ht="16" customHeight="1">
+      <c r="A69" s="74"/>
+      <c r="B69" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="11" t="s">
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="H69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" ht="16" customHeight="1">
+      <c r="A70" s="74"/>
+      <c r="B70" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="11" t="s">
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="H70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" customHeight="1">
+      <c r="A71" s="74"/>
+      <c r="B71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="11" t="s">
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="H71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" ht="16" customHeight="1">
+      <c r="A72" s="74"/>
+      <c r="B72" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="11" t="s">
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="H72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" ht="16" customHeight="1">
+      <c r="A73" s="74"/>
+      <c r="B73" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="26" t="s">
+      <c r="H73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="215.25" customHeight="1">
+      <c r="A74" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="C74" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="D74" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="E74" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="F74" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="11" t="s">
+      <c r="H74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" ht="16" customHeight="1">
+      <c r="A75" s="76"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="11" t="s">
+      <c r="H75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" ht="16" customHeight="1">
+      <c r="A76" s="76"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="11" t="s">
+      <c r="H76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" ht="16" customHeight="1">
+      <c r="A77" s="76"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="11" t="s">
+      <c r="H77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" ht="16" customHeight="1">
+      <c r="A78" s="76"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26" t="s">
+      <c r="H78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" ht="16" customHeight="1">
+      <c r="A79" s="75"/>
+      <c r="B79" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="62" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E79" s="44"/>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="50"/>
+      <c r="G79" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="11" t="s">
+      <c r="H79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="1:9" ht="16" customHeight="1">
+      <c r="A80" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G80" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
+      <c r="H80" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:9" ht="16" customHeight="1">
+      <c r="A81" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="62" t="s">
+      <c r="C81" s="33"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="50"/>
+      <c r="G81" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="11" t="s">
+      <c r="H81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:9" ht="16" customHeight="1">
+      <c r="A82" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" s="64"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G82" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+      <c r="H82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:9" s="8" customFormat="1" ht="16" customHeight="1">
+      <c r="A83" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="19" t="s">
+      <c r="C83" s="33"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E83" s="44"/>
-      <c r="G83" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="F83" s="50"/>
+      <c r="H83" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" ht="16" customHeight="1">
+      <c r="A84" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="19" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="50"/>
+      <c r="G84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="H84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" ht="16" customHeight="1">
+      <c r="A85" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="19" t="s">
+      <c r="C85" s="33"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="44"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+      <c r="F85" s="50"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:9" ht="16" customHeight="1">
+      <c r="A86" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="19" t="s">
+      <c r="C86" s="45"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="51"/>
+      <c r="G86" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+      <c r="H86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" customHeight="1">
+      <c r="A87" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="C87" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="63" t="s">
+      <c r="D87" s="6"/>
+      <c r="E87" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="61" t="s">
+      <c r="F87" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="G87" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G87" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="H87" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="1:9" ht="16" customHeight="1">
+      <c r="A88" s="67"/>
+      <c r="B88" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="14" t="s">
+      <c r="C88" s="27"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="H88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="1:9" ht="16" customHeight="1">
+      <c r="A89" s="67"/>
+      <c r="B89" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="14" t="s">
+      <c r="C89" s="27"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="H89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="1:9" ht="16" customHeight="1">
+      <c r="A90" s="67"/>
+      <c r="B90" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="64" t="s">
+      <c r="C90" s="27"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="27"/>
+      <c r="G90" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="H90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:9" ht="16" customHeight="1">
+      <c r="A91" s="67"/>
+      <c r="B91" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="14" t="s">
+      <c r="C91" s="27"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+      <c r="H91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:9" ht="16" customHeight="1">
+      <c r="A92" s="67"/>
+      <c r="B92" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="14" t="s">
+      <c r="C92" s="27"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="I92" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:9" ht="16" customHeight="1">
+      <c r="A93" s="67"/>
+      <c r="B93" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="57"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="64" t="s">
+      <c r="C93" s="27"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="27"/>
+      <c r="G93" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G93" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="H93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" ht="16" customHeight="1">
+      <c r="A94" s="67"/>
+      <c r="B94" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="57"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="14" t="s">
+      <c r="C94" s="27"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="H94" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="I94" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:9" ht="16" customHeight="1">
+      <c r="A95" s="67"/>
+      <c r="B95" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="57"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="63" t="s">
+      <c r="C95" s="27"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="57"/>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="27"/>
+      <c r="G95" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G95" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="H95" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" ht="16" customHeight="1">
+      <c r="A96" s="67"/>
+      <c r="B96" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="14" t="s">
+      <c r="C96" s="27"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="H96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" ht="16" customHeight="1">
+      <c r="A97" s="67"/>
+      <c r="B97" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B97" s="57"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="14" t="s">
+      <c r="C97" s="27"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="H97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" ht="16" customHeight="1">
+      <c r="A98" s="67"/>
+      <c r="B98" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="64" t="s">
+      <c r="C98" s="27"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E98" s="57"/>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="27"/>
+      <c r="G98" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="H98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" ht="16" customHeight="1">
+      <c r="A99" s="67"/>
+      <c r="B99" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="14" t="s">
+      <c r="C99" s="27"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="H99" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" ht="16" customHeight="1">
+      <c r="A100" s="67"/>
+      <c r="B100" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B100" s="57"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="14" t="s">
+      <c r="C100" s="27"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="H100" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="I100" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:9" ht="16" customHeight="1">
+      <c r="A101" s="67"/>
+      <c r="B101" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="14" t="s">
+      <c r="C101" s="27"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="H101" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="I101" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:9" ht="16" customHeight="1">
+      <c r="A102" s="67"/>
+      <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B102" s="57"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="E102" s="57"/>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="27"/>
+      <c r="G102" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G102" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+      <c r="H102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" ht="16" customHeight="1">
+      <c r="A103" s="67"/>
+      <c r="B103" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="57"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="14" t="s">
+      <c r="C103" s="27"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G103" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="H103" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" ht="16" customHeight="1">
+      <c r="A104" s="67"/>
+      <c r="B104" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B104" s="57"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="14" t="s">
+      <c r="C104" s="27"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="H104" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="I104" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:9" ht="16" customHeight="1">
+      <c r="A105" s="67"/>
+      <c r="B105" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="14" t="s">
+      <c r="C105" s="27"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="H105" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H105" s="16" t="s">
+      <c r="I105" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:9" ht="51">
+      <c r="A106" s="67"/>
+      <c r="B106" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B106" s="57"/>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="27"/>
+      <c r="D106" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="6"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+      <c r="H106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" ht="16" customHeight="1">
+      <c r="A107" s="67"/>
+      <c r="B107" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="64" t="s">
+      <c r="C107" s="27"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E107" s="57"/>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="27"/>
+      <c r="G107" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="G107" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+      <c r="H107" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" ht="16" customHeight="1">
+      <c r="A108" s="67"/>
+      <c r="B108" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="14" t="s">
+      <c r="C108" s="27"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="H108" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H108" s="16" t="s">
+      <c r="I108" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:9" ht="16" customHeight="1">
+      <c r="A109" s="67"/>
+      <c r="B109" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="57"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="14" t="s">
+      <c r="C109" s="27"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G109" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="H109" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:9" ht="16" customHeight="1">
+      <c r="A110" s="67"/>
+      <c r="B110" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6" t="s">
+      <c r="C110" s="28"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="58"/>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="28"/>
+      <c r="G110" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="H110" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H110" s="16" t="s">
+      <c r="I110" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B112" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="D112" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="E112" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="F112" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22">
+    <row r="113" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B113" s="22">
         <v>105</v>
       </c>
-      <c r="B113" s="22">
+      <c r="C113" s="22">
         <v>110</v>
       </c>
-      <c r="C113" s="25">
-        <f>COUNTIF(G2:G110, "Pass")</f>
+      <c r="D113" s="25">
+        <f>COUNTIF(H2:H110, "Pass")</f>
         <v>97</v>
       </c>
-      <c r="D113" s="22">
-        <f>B113-C113</f>
+      <c r="E113" s="22">
+        <f>C113-D113</f>
         <v>13</v>
       </c>
-      <c r="E113" s="24" t="str">
-        <f>TEXT((C113 / B113) * 100, "0.00") &amp; "%"</f>
+      <c r="F113" s="24" t="str">
+        <f>TEXT((D113 / C113) * 100, "0.00") &amp; "%"</f>
         <v>88.18%</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
+    <row r="114" spans="2:6" ht="15.75" customHeight="1">
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
-      <c r="E114" s="24"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="24"/>
+    </row>
+    <row r="117" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="118" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="119" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="120" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="121" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="122" spans="2:6" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B87:B110"/>
-    <mergeCell ref="E64:E73"/>
-    <mergeCell ref="E87:E110"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E2:E39"/>
-    <mergeCell ref="E54:E63"/>
-    <mergeCell ref="B74:B86"/>
+  <mergeCells count="41">
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A87:A110"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F2:F39"/>
+    <mergeCell ref="F54:F63"/>
     <mergeCell ref="C74:C86"/>
-    <mergeCell ref="E74:E86"/>
-    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="D74:D86"/>
+    <mergeCell ref="F74:F86"/>
     <mergeCell ref="C64:C73"/>
     <mergeCell ref="D64:D73"/>
-    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="E64:E73"/>
+    <mergeCell ref="C2:C39"/>
+    <mergeCell ref="E2:E39"/>
     <mergeCell ref="D2:D39"/>
-    <mergeCell ref="C2:C39"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="E40:E48"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="F40:F48"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="C87:C110"/>
+    <mergeCell ref="F64:F73"/>
+    <mergeCell ref="F87:F110"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="E95:E97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1" xr:uid="{12F4EA6D-6A34-4074-A3E5-653049BD05CC}"/>
-    <hyperlink ref="B74" r:id="rId2" xr:uid="{C591802C-E071-482C-85BB-9654129EFCBF}"/>
-    <hyperlink ref="D74" r:id="rId3" display="https://drive.google.com/drive/folders/1Bgzg5PTSAsIvl_0aO6MKQ-xVYpeVVRoN" xr:uid="{994E28CA-CF7A-48F7-830E-4582E528C210}"/>
-    <hyperlink ref="E74" r:id="rId4" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/Checkout.html" xr:uid="{F50EB446-0D6E-43C6-B409-CBD965955357}"/>
-    <hyperlink ref="E64:E73" r:id="rId5" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/RestaurantPage.html" xr:uid="{6E68D116-4880-4EBC-9BF6-6A8457192F5B}"/>
-    <hyperlink ref="E54:E63" r:id="rId6" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/login2.html" xr:uid="{244A7285-483A-4852-A58C-065B9D13E429}"/>
-    <hyperlink ref="E87:E110" r:id="rId7" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/Checkout.js" xr:uid="{BEBC27C0-FD2C-43BD-9876-BC34B378CE31}"/>
+    <hyperlink ref="F54" r:id="rId1" xr:uid="{12F4EA6D-6A34-4074-A3E5-653049BD05CC}"/>
+    <hyperlink ref="C74" r:id="rId2" xr:uid="{C591802C-E071-482C-85BB-9654129EFCBF}"/>
+    <hyperlink ref="E74" r:id="rId3" display="https://drive.google.com/drive/folders/1Bgzg5PTSAsIvl_0aO6MKQ-xVYpeVVRoN" xr:uid="{994E28CA-CF7A-48F7-830E-4582E528C210}"/>
+    <hyperlink ref="F74" r:id="rId4" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/Checkout.html" xr:uid="{F50EB446-0D6E-43C6-B409-CBD965955357}"/>
+    <hyperlink ref="F64:F73" r:id="rId5" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/RestaurantPage.html" xr:uid="{6E68D116-4880-4EBC-9BF6-6A8457192F5B}"/>
+    <hyperlink ref="F54:F63" r:id="rId6" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/login2.html" xr:uid="{244A7285-483A-4852-A58C-065B9D13E429}"/>
+    <hyperlink ref="F87:F110" r:id="rId7" display="https://github.com/mariam-ahmed-elhosany/QA-Workshop_Foodies/blob/main/Code/Checkout.js" xr:uid="{BEBC27C0-FD2C-43BD-9876-BC34B378CE31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
